--- a/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:49:52+00:00</t>
+    <t>2023-02-06T15:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:52:39+00:00</t>
+    <t>2023-02-08T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:22:24+00:00</t>
+    <t>2023-02-08T11:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
